--- a/branches/merging/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/branches/merging/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
